--- a/biology/Microbiologie/Nannoconus/Nannoconus.xlsx
+++ b/biology/Microbiologie/Nannoconus/Nannoconus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nannoconus est un genre éteint d'algues microscopiques planctoniques haptophytes dont on retrouve les éléments du squelette externe calcitique dans les sédiments du Crétacé. Le genre a donné son nom à la famille éteinte des Nannoconaceae rattachée à la classe des Prymnesiophyceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nannoconus est un genre éteint d'algues microscopiques planctoniques haptophytes dont on retrouve les éléments du squelette externe calcitique dans les sédiments du Crétacé. Le genre a donné son nom à la famille éteinte des Nannoconaceae rattachée à la classe des Prymnesiophyceae.
 Ces microfossiles furent étudiés dans les années 1950 par Paul Brönnimann qui laissa son nom à plusieurs espèces de Nannoconus. On en répertorie une vingtaine d'espèces qui ont vécu au cours du Crétacé 
 il y a environ entre 136 et 70 Ma (millions d'années).
 </t>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nannoconus est un genre de microfossiles  ou nannofossiles, provenant d'algues microscopiques (Algae)  ou nanoplancton, dont le squelette calcaire est formé d'un assemblage cylindrique, globuleux et pyriforme de petites plaquettes triangulaires arrangé en spire, les pointes dirigées vers l'axe avec un canal central dans l'axe, ouvert aux deux extrémités[2]. Leur taille est de quelques micromètres. Ils contribuent, avec d'autres microfossiles, à la formation de roches carbonatées (calcaires, craie, marnes...).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nannoconus est un genre de microfossiles  ou nannofossiles, provenant d'algues microscopiques (Algae)  ou nanoplancton, dont le squelette calcaire est formé d'un assemblage cylindrique, globuleux et pyriforme de petites plaquettes triangulaires arrangé en spire, les pointes dirigées vers l'axe avec un canal central dans l'axe, ouvert aux deux extrémités. Leur taille est de quelques micromètres. Ils contribuent, avec d'autres microfossiles, à la formation de roches carbonatées (calcaires, craie, marnes...).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eucaryotes, Chromista - T. Cavalier-Smith, 1981 Chromobiota  - Cavalier-Smith, 1991
 Haptista, Haptophyta - Hibberd Ex Cavalier-Smith, 1986
@@ -577,7 +593,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon  paramètre de Bioref « uBIO » non reconnu  :
 Nannoconus abundans
@@ -612,7 +630,7 @@
 Nannoconus steinmannii steinmannii
 Nannoconus truittii
 Nannoconus wassali
-Selon Paleobiology Database                   (23 juil. 2012)[3] :
+Selon Paleobiology Database                   (23 juil. 2012) :
 Nannoconus abundans
 Nannoconus borealis
 Nannoconus bucheri
@@ -666,6 +684,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
